--- a/raw_data/20200818_saline/20200818_Sensor0_Test_87.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_87.xlsx
@@ -1,2442 +1,2858 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE10DD5-21F3-4AF1-872D-B1E7AE734C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>77402.909478</v>
+        <v>77402.909478000001</v>
       </c>
       <c r="B2" s="1">
-        <v>21.500808</v>
+        <v>21.500807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.105000</v>
+        <v>904.10500000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.848000</v>
+        <v>-192.84800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>77413.413265</v>
+        <v>77413.413264999996</v>
       </c>
       <c r="G2" s="1">
         <v>21.503726</v>
       </c>
       <c r="H2" s="1">
-        <v>921.047000</v>
+        <v>921.04700000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.426000</v>
+        <v>-164.42599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>77423.511344</v>
+        <v>77423.511343999999</v>
       </c>
       <c r="L2" s="1">
-        <v>21.506531</v>
+        <v>21.506530999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>944.273000</v>
+        <v>944.27300000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.003000</v>
+        <v>-119.003</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>77434.333020</v>
+        <v>77434.333020000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.509537</v>
+        <v>21.509537000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>951.299000</v>
+        <v>951.29899999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.988000</v>
+        <v>-103.988</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>77444.872510</v>
+        <v>77444.872510000001</v>
       </c>
       <c r="V2" s="1">
-        <v>21.512465</v>
+        <v>21.512464999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>958.256000</v>
+        <v>958.25599999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.424200</v>
+        <v>-90.424199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>77455.625311</v>
+        <v>77455.625310999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.515451</v>
+        <v>21.515450999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.912000</v>
+        <v>965.91200000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.746200</v>
+        <v>-80.746200000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>77466.397426</v>
+        <v>77466.397425999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.518444</v>
+        <v>21.518443999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.972000</v>
+        <v>970.97199999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.396000</v>
+        <v>-80.396000000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>77476.837188</v>
+        <v>77476.837188000005</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.521344</v>
+        <v>21.521343999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.162000</v>
+        <v>979.16200000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.812200</v>
+        <v>-87.812200000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>77487.725367</v>
+        <v>77487.725367000006</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.524368</v>
+        <v>21.524367999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.423000</v>
+        <v>988.423</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.513000</v>
+        <v>-102.51300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>77498.445399</v>
+        <v>77498.445399000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.527346</v>
+        <v>21.527346000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.865000</v>
+        <v>999.86500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.816000</v>
+        <v>-123.816</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>77509.263176</v>
+        <v>77509.263175999993</v>
       </c>
       <c r="AZ2" s="1">
         <v>21.530351</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.384000</v>
+        <v>-142.38399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>77519.816059</v>
+        <v>77519.816059000004</v>
       </c>
       <c r="BE2" s="1">
         <v>21.533282</v>
       </c>
       <c r="BF2" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.322000</v>
+        <v>-226.322</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>77530.506797</v>
+        <v>77530.506796999995</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.536252</v>
+        <v>21.536252000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.566000</v>
+        <v>-360.56599999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>77541.967887</v>
+        <v>77541.967887000006</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.539436</v>
+        <v>21.539435999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.500000</v>
+        <v>1265.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.197000</v>
+        <v>-567.197</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>77554.663950</v>
+        <v>77554.663950000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.542962</v>
+        <v>21.542961999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.950000</v>
+        <v>1411.95</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.800000</v>
+        <v>-787.8</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>77565.059103</v>
+        <v>77565.059103000007</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.545850</v>
+        <v>21.545850000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1572.050000</v>
+        <v>1572.05</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1016.860000</v>
+        <v>-1016.86</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>77576.083681</v>
+        <v>77576.083681000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.548912</v>
+        <v>21.548912000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1974.200000</v>
+        <v>1974.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1553.490000</v>
+        <v>-1553.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>77403.272549</v>
+        <v>77403.272549000001</v>
       </c>
       <c r="B3" s="1">
         <v>21.500909</v>
       </c>
       <c r="C3" s="1">
-        <v>904.201000</v>
+        <v>904.20100000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.910000</v>
+        <v>-192.91</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>77413.945463</v>
+        <v>77413.945462999996</v>
       </c>
       <c r="G3" s="1">
         <v>21.503874</v>
       </c>
       <c r="H3" s="1">
-        <v>921.513000</v>
+        <v>921.51300000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.503000</v>
+        <v>-164.50299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>77424.228025</v>
+        <v>77424.228025000004</v>
       </c>
       <c r="L3" s="1">
-        <v>21.506730</v>
+        <v>21.506730000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.332000</v>
+        <v>944.33199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.937000</v>
+        <v>-118.937</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>77434.715435</v>
+        <v>77434.715435000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.509643</v>
+        <v>21.509643000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>951.291000</v>
+        <v>951.29100000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.997000</v>
+        <v>-103.997</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>77445.220734</v>
+        <v>77445.220734000002</v>
       </c>
       <c r="V3" s="1">
-        <v>21.512561</v>
+        <v>21.512561000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>958.240000</v>
+        <v>958.24</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.330600</v>
+        <v>-90.330600000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>77455.976448</v>
+        <v>77455.976448000001</v>
       </c>
       <c r="AA3" s="1">
         <v>21.515549</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.864000</v>
+        <v>965.86400000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.898500</v>
+        <v>-80.898499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>77467.079425</v>
+        <v>77467.079425000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.518633</v>
+        <v>21.518633000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.058000</v>
+        <v>971.05799999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.292000</v>
+        <v>-80.292000000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>77477.533571</v>
+        <v>77477.533571000007</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.521537</v>
+        <v>21.521536999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.165000</v>
+        <v>979.16499999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.798400</v>
+        <v>-87.798400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>77488.158870</v>
+        <v>77488.158869999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.524489</v>
+        <v>21.524488999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.432000</v>
+        <v>988.43200000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.505000</v>
+        <v>-102.505</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>77498.859560</v>
+        <v>77498.859559999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.527461</v>
+        <v>21.527460999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.870000</v>
+        <v>999.87</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>77509.626744</v>
+        <v>77509.626743999994</v>
       </c>
       <c r="AZ3" s="1">
         <v>21.530452</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.388000</v>
+        <v>-142.38800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>77520.195467</v>
+        <v>77520.195466999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.533388</v>
+        <v>21.533387999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.318000</v>
+        <v>-226.31800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>77531.142668</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.536429</v>
+        <v>21.536428999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1134.520000</v>
+        <v>1134.52</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.565000</v>
+        <v>-360.565</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>77542.405823</v>
+        <v>77542.405822999994</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.539557</v>
+        <v>21.539556999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.490000</v>
+        <v>1265.49</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.228000</v>
+        <v>-567.22799999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>77554.806301</v>
+        <v>77554.806301000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.543002</v>
+        <v>21.543002000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.210000</v>
+        <v>1412.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-787.852000</v>
+        <v>-787.85199999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>77565.539230</v>
+        <v>77565.539229999995</v>
       </c>
       <c r="BY3" s="1">
         <v>21.545983</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1572.180000</v>
+        <v>1572.18</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1016.900000</v>
+        <v>-1016.9</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>77576.679376</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.549078</v>
+        <v>21.549078000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1973.850000</v>
+        <v>1973.85</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1551.300000</v>
+        <v>-1551.3</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>77403.967445</v>
+        <v>77403.967445000002</v>
       </c>
       <c r="B4" s="1">
-        <v>21.501102</v>
+        <v>21.501101999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.261000</v>
+        <v>904.26099999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.813000</v>
+        <v>-192.81299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>77414.102200</v>
+        <v>77414.102199999994</v>
       </c>
       <c r="G4" s="1">
-        <v>21.503917</v>
+        <v>21.503917000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>921.144000</v>
+        <v>921.14400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.617000</v>
+        <v>-164.61699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>77424.576217</v>
+        <v>77424.576216999994</v>
       </c>
       <c r="L4" s="1">
-        <v>21.506827</v>
+        <v>21.506827000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.377000</v>
+        <v>944.37699999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.057000</v>
+        <v>-119.057</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>77435.062801</v>
+        <v>77435.062800999993</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.509740</v>
+        <v>21.509740000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>951.304000</v>
+        <v>951.30399999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.923000</v>
+        <v>-103.923</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>77445.566909</v>
+        <v>77445.566909000001</v>
       </c>
       <c r="V4" s="1">
-        <v>21.512657</v>
+        <v>21.512657000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.249000</v>
+        <v>958.24900000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.411700</v>
+        <v>-90.411699999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>77456.634144</v>
+        <v>77456.634143999996</v>
       </c>
       <c r="AA4" s="1">
         <v>21.515732</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.921000</v>
+        <v>965.92100000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.838100</v>
+        <v>-80.838099999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>77467.444944</v>
+        <v>77467.444944000003</v>
       </c>
       <c r="AF4" s="1">
         <v>21.518735</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.061000</v>
+        <v>971.06100000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.275700</v>
+        <v>-80.275700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>77477.910069</v>
+        <v>77477.910069000005</v>
       </c>
       <c r="AK4" s="1">
         <v>21.521642</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.157000</v>
+        <v>979.15700000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.831600</v>
+        <v>-87.831599999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>77488.516484</v>
+        <v>77488.516484000007</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.524588</v>
+        <v>21.524588000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.427000</v>
+        <v>988.42700000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>77499.222663</v>
+        <v>77499.222662999993</v>
       </c>
       <c r="AU4" s="1">
         <v>21.527562</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.885000</v>
+        <v>999.88499999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.824000</v>
+        <v>-123.824</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>77509.984824</v>
+        <v>77509.984823999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.530551</v>
+        <v>21.530550999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.375000</v>
+        <v>-142.375</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>77520.612139</v>
+        <v>77520.612139000004</v>
       </c>
       <c r="BE4" s="1">
         <v>21.533503</v>
       </c>
       <c r="BF4" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.326000</v>
+        <v>-226.32599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>77531.643133</v>
+        <v>77531.643133000005</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.536568</v>
+        <v>21.536567999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.559000</v>
+        <v>-360.55900000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>77542.816014</v>
+        <v>77542.816013999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.539671</v>
+        <v>21.539670999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.540000</v>
+        <v>1265.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.218000</v>
+        <v>-567.21799999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>77555.218986</v>
+        <v>77555.218986000007</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.543116</v>
+        <v>21.543116000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.290000</v>
+        <v>1412.29</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.790000</v>
+        <v>-787.79</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>77565.992111</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.546109</v>
+        <v>21.546109000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.990000</v>
+        <v>1571.99</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1016.820000</v>
+        <v>-1016.82</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>77577.217535</v>
+        <v>77577.217535000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.549227</v>
+        <v>21.549226999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1973.620000</v>
+        <v>1973.62</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1553.490000</v>
+        <v>-1553.49</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>77404.307204</v>
+        <v>77404.307203999997</v>
       </c>
       <c r="B5" s="1">
         <v>21.501196</v>
       </c>
       <c r="C5" s="1">
-        <v>904.252000</v>
+        <v>904.25199999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.841000</v>
+        <v>-192.84100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>77414.449894</v>
+        <v>77414.449894000005</v>
       </c>
       <c r="G5" s="1">
-        <v>21.504014</v>
+        <v>21.504014000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>920.859000</v>
+        <v>920.85900000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.799000</v>
+        <v>-164.79900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>77424.924904</v>
       </c>
       <c r="L5" s="1">
-        <v>21.506924</v>
+        <v>21.506924000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>944.426000</v>
+        <v>944.42600000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.939000</v>
+        <v>-118.93899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>77435.726810</v>
+        <v>77435.726809999993</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.509924</v>
+        <v>21.509924000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>951.372000</v>
+        <v>951.37199999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.022000</v>
+        <v>-104.02200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>77446.235517</v>
+        <v>77446.235516999994</v>
       </c>
       <c r="V5" s="1">
         <v>21.512843</v>
       </c>
       <c r="W5" s="1">
-        <v>958.272000</v>
+        <v>958.27200000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.447300</v>
+        <v>-90.447299999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>77457.023503</v>
+        <v>77457.023503000004</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.515840</v>
+        <v>21.515840000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.855000</v>
+        <v>965.85500000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.836600</v>
+        <v>-80.836600000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>77467.789169</v>
+        <v>77467.789168999996</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.518830</v>
+        <v>21.518830000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.061000</v>
+        <v>971.06100000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.322200</v>
+        <v>-80.322199999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>77478.258724</v>
+        <v>77478.258723999999</v>
       </c>
       <c r="AK5" s="1">
         <v>21.521739</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.162000</v>
+        <v>979.16200000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.841200</v>
+        <v>-87.841200000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>77488.877076</v>
+        <v>77488.877076000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.524688</v>
+        <v>21.524688000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.427000</v>
+        <v>988.42700000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.517000</v>
+        <v>-102.517</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>77499.651702</v>
+        <v>77499.651702000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.527681</v>
+        <v>21.527681000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.808000</v>
+        <v>-123.80800000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>77510.406920</v>
+        <v>77510.406919999994</v>
       </c>
       <c r="AZ5" s="1">
         <v>21.530669</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.353000</v>
+        <v>-142.35300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>77520.919168</v>
+        <v>77520.919167999993</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.533589</v>
+        <v>21.533588999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.325000</v>
+        <v>-226.32499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>77532.019099</v>
+        <v>77532.019098999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.536672</v>
+        <v>21.536671999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1134.500000</v>
+        <v>1134.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.552000</v>
+        <v>-360.55200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>77543.210332</v>
+        <v>77543.210332000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.539781</v>
+        <v>21.539781000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.510000</v>
+        <v>1265.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.222000</v>
+        <v>-567.22199999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>77555.649004</v>
+        <v>77555.649004000006</v>
       </c>
       <c r="BT5" s="1">
         <v>21.543236</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.310000</v>
+        <v>1412.31</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.697000</v>
+        <v>-787.697</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>77566.445918</v>
+        <v>77566.445917999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.546235</v>
+        <v>21.546234999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1572.110000</v>
+        <v>1572.11</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1016.990000</v>
+        <v>-1016.99</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>77577.758174</v>
+        <v>77577.758174000002</v>
       </c>
       <c r="CD5" s="1">
         <v>21.549377</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.770000</v>
+        <v>1974.77</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1551.980000</v>
+        <v>-1551.98</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>77404.656883</v>
+        <v>77404.656883000003</v>
       </c>
       <c r="B6" s="1">
-        <v>21.501294</v>
+        <v>21.501294000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>904.351000</v>
+        <v>904.351</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.927000</v>
+        <v>-192.92699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>77415.108112</v>
+        <v>77415.108112000002</v>
       </c>
       <c r="G6" s="1">
-        <v>21.504197</v>
+        <v>21.504197000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>921.228000</v>
+        <v>921.22799999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.538000</v>
+        <v>-164.53800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>77425.593016</v>
+        <v>77425.593015999999</v>
       </c>
       <c r="L6" s="1">
         <v>21.507109</v>
       </c>
       <c r="M6" s="1">
-        <v>944.467000</v>
+        <v>944.46699999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.933000</v>
+        <v>-118.93300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>77436.108699</v>
+        <v>77436.108699000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.510030</v>
+        <v>21.51003</v>
       </c>
       <c r="R6" s="1">
-        <v>951.330000</v>
+        <v>951.33</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.999000</v>
+        <v>-103.999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>77446.596108</v>
+        <v>77446.596107999998</v>
       </c>
       <c r="V6" s="1">
         <v>21.512943</v>
       </c>
       <c r="W6" s="1">
-        <v>958.276000</v>
+        <v>958.27599999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.337700</v>
+        <v>-90.337699999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>77457.371695</v>
+        <v>77457.371694999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.515937</v>
+        <v>21.515937000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.842000</v>
+        <v>965.84199999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.820900</v>
+        <v>-80.820899999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>77468.140337</v>
+        <v>77468.140337000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.518928</v>
+        <v>21.518927999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.072000</v>
+        <v>971.072</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.301200</v>
+        <v>-80.301199999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>77478.607906</v>
+        <v>77478.607906000005</v>
       </c>
       <c r="AK6" s="1">
         <v>21.521836</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.151000</v>
+        <v>979.15099999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.801700</v>
+        <v>-87.801699999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>77489.317525</v>
+        <v>77489.317525000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.524810</v>
+        <v>21.524809999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.436000</v>
+        <v>988.43600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.510000</v>
+        <v>-102.51</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>77499.952743</v>
+        <v>77499.952743000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.527765</v>
+        <v>21.527764999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.873000</v>
+        <v>999.87300000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>77510.703031</v>
+        <v>77510.703030999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.530751</v>
+        <v>21.530750999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.358000</v>
+        <v>-142.358</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>77521.278729</v>
+        <v>77521.278728999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.533689</v>
+        <v>21.533688999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1054.970000</v>
+        <v>1054.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.332000</v>
+        <v>-226.33199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>77532.399530</v>
+        <v>77532.399529999995</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.536778</v>
+        <v>21.536778000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.581000</v>
+        <v>-360.58100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>77543.631931</v>
+        <v>77543.631930999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.539898</v>
+        <v>21.539898000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.223000</v>
+        <v>-567.22299999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>77556.081515</v>
+        <v>77556.081514999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.543356</v>
+        <v>21.543355999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.420000</v>
+        <v>1412.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-787.554000</v>
+        <v>-787.55399999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>77566.897277</v>
+        <v>77566.897276999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.546360</v>
+        <v>21.54636</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1572.020000</v>
+        <v>1572.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1016.880000</v>
+        <v>-1016.88</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>77578.297326</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.549527</v>
+        <v>21.549527000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1973.140000</v>
+        <v>1973.14</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1552.760000</v>
+        <v>-1552.76</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>77405.315570</v>
+        <v>77405.315570000006</v>
       </c>
       <c r="B7" s="1">
-        <v>21.501477</v>
+        <v>21.501477000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>904.346000</v>
+        <v>904.346</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.851000</v>
+        <v>-192.851</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>77415.485045</v>
+        <v>77415.485044999994</v>
       </c>
       <c r="G7" s="1">
-        <v>21.504301</v>
+        <v>21.504301000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>921.051000</v>
+        <v>921.05100000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.540000</v>
+        <v>-164.54</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>77425.959590</v>
+        <v>77425.959589999999</v>
       </c>
       <c r="L7" s="1">
-        <v>21.507211</v>
+        <v>21.507211000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>944.371000</v>
+        <v>944.37099999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.028000</v>
+        <v>-119.02800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>77436.457881</v>
+        <v>77436.457880999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.510127</v>
+        <v>21.510127000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.310000</v>
+        <v>951.31</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.997000</v>
+        <v>-103.997</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>77446.938385</v>
+        <v>77446.938385000001</v>
       </c>
       <c r="V7" s="1">
-        <v>21.513038</v>
+        <v>21.513038000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>958.316000</v>
+        <v>958.31600000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.477600</v>
+        <v>-90.477599999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>77457.721373</v>
+        <v>77457.721372999993</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.516034</v>
+        <v>21.516034000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.864000</v>
+        <v>965.86400000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.836200</v>
+        <v>-80.836200000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>77468.566926</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.519046</v>
+        <v>21.519045999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.859000</v>
+        <v>970.85900000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.276200</v>
+        <v>-80.276200000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>77479.039425</v>
+        <v>77479.039424999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.521955</v>
+        <v>21.521954999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.156000</v>
+        <v>979.15599999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.790400</v>
+        <v>-87.790400000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>77489.595315</v>
+        <v>77489.595314999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.524888</v>
+        <v>21.524888000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.425000</v>
+        <v>988.42499999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.501000</v>
+        <v>-102.501</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>77500.316804</v>
+        <v>77500.316804000002</v>
       </c>
       <c r="AU7" s="1">
         <v>21.527866</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.821000</v>
+        <v>-123.821</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>77511.059197</v>
+        <v>77511.059196999995</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.530850</v>
+        <v>21.530850000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.550000</v>
+        <v>1009.55</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.374000</v>
+        <v>-142.374</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>77521.643321</v>
+        <v>77521.643320999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.533790</v>
+        <v>21.53379</v>
       </c>
       <c r="BF7" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.329000</v>
+        <v>-226.32900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>77533.164858</v>
+        <v>77533.164858000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.536990</v>
+        <v>21.536989999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1134.500000</v>
+        <v>1134.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.523000</v>
+        <v>-360.52300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>77544.450827</v>
+        <v>77544.450826999993</v>
       </c>
       <c r="BO7" s="1">
         <v>21.540125</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.530000</v>
+        <v>1265.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.255000</v>
+        <v>-567.255</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>77556.491211</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.543470</v>
+        <v>21.543469999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.330000</v>
+        <v>1412.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-787.494000</v>
+        <v>-787.49400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>77567.352109</v>
+        <v>77567.352108999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.546487</v>
+        <v>21.546486999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1572.000000</v>
+        <v>1572</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1016.960000</v>
+        <v>-1016.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>77578.835981</v>
+        <v>77578.835980999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.549677</v>
+        <v>21.549676999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1975.090000</v>
+        <v>1975.09</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1553.190000</v>
+        <v>-1553.19</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>77405.685586</v>
+        <v>77405.685586000007</v>
       </c>
       <c r="B8" s="1">
         <v>21.501579</v>
       </c>
       <c r="C8" s="1">
-        <v>904.192000</v>
+        <v>904.19200000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.788000</v>
+        <v>-192.78800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>77415.828277</v>
+        <v>77415.828276999993</v>
       </c>
       <c r="G8" s="1">
-        <v>21.504397</v>
+        <v>21.504397000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>920.883000</v>
+        <v>920.88300000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.616000</v>
+        <v>-164.61600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>77426.303782</v>
+        <v>77426.303782000003</v>
       </c>
       <c r="L8" s="1">
-        <v>21.507307</v>
+        <v>21.507307000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>944.538000</v>
+        <v>944.53800000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.057000</v>
+        <v>-119.057</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>77436.820489</v>
+        <v>77436.820489000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.510228</v>
+        <v>21.510228000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>951.291000</v>
+        <v>951.29100000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.025000</v>
+        <v>-104.02500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>77447.569291</v>
+        <v>77447.569291000007</v>
       </c>
       <c r="V8" s="1">
-        <v>21.513214</v>
+        <v>21.513214000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>958.293000</v>
+        <v>958.29300000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.411400</v>
+        <v>-90.4114</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>77458.141485</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.516150</v>
+        <v>21.51615</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.892000</v>
+        <v>965.89200000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.785000</v>
+        <v>-80.784999999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>77468.839694</v>
+        <v>77468.839693999995</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.519122</v>
+        <v>21.519121999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.972000</v>
+        <v>970.97199999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.363900</v>
+        <v>-80.363900000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>77479.319665</v>
+        <v>77479.319665000003</v>
       </c>
       <c r="AK8" s="1">
         <v>21.522033</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.164000</v>
+        <v>979.16399999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.789300</v>
+        <v>-87.789299999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>77489.955379</v>
+        <v>77489.955379000006</v>
       </c>
       <c r="AP8" s="1">
         <v>21.524988</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.435000</v>
+        <v>988.43499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.513000</v>
+        <v>-102.51300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>77500.681365</v>
+        <v>77500.681364999997</v>
       </c>
       <c r="AU8" s="1">
         <v>21.527967</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.888000</v>
+        <v>999.88800000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>77511.419783</v>
+        <v>77511.419783000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.530950</v>
+        <v>21.530950000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.391000</v>
+        <v>-142.39099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>77522.362985</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.533990</v>
+        <v>21.533989999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1054.970000</v>
+        <v>1054.97</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.326000</v>
+        <v>-226.32599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>77533.541849</v>
+        <v>77533.541849000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.537095</v>
+        <v>21.537095000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1134.510000</v>
+        <v>1134.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.571000</v>
+        <v>-360.57100000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>77544.865483</v>
+        <v>77544.865483000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.540240</v>
+        <v>21.540240000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.490000</v>
+        <v>1265.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.247000</v>
+        <v>-567.24699999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>77556.923722</v>
+        <v>77556.923722000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.543590</v>
+        <v>21.543589999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.340000</v>
+        <v>1412.34</v>
       </c>
       <c r="BV8" s="1">
-        <v>-787.313000</v>
+        <v>-787.31299999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>77568.110988</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.546697</v>
+        <v>21.546697000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1572.000000</v>
+        <v>1572</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1016.930000</v>
+        <v>-1016.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>77579.702491</v>
+        <v>77579.702491000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.549917</v>
+        <v>21.549917000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1973.160000</v>
+        <v>1973.16</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1553.370000</v>
+        <v>-1553.37</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>77406.032785</v>
+        <v>77406.032785000003</v>
       </c>
       <c r="B9" s="1">
         <v>21.501676</v>
       </c>
       <c r="C9" s="1">
-        <v>904.275000</v>
+        <v>904.27499999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.835000</v>
+        <v>-192.83500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>77416.172996</v>
+        <v>77416.172995999994</v>
       </c>
       <c r="G9" s="1">
-        <v>21.504492</v>
+        <v>21.504491999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>921.235000</v>
+        <v>921.23500000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.590000</v>
+        <v>-164.59</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>77426.652472</v>
+        <v>77426.652472000002</v>
       </c>
       <c r="L9" s="1">
         <v>21.507403</v>
       </c>
       <c r="M9" s="1">
-        <v>944.492000</v>
+        <v>944.49199999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.897000</v>
+        <v>-118.89700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>77437.251513</v>
+        <v>77437.251512999996</v>
       </c>
       <c r="Q9" s="1">
         <v>21.510348</v>
       </c>
       <c r="R9" s="1">
-        <v>951.332000</v>
+        <v>951.33199999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.977000</v>
+        <v>-103.977</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>77447.968079</v>
+        <v>77447.968078999998</v>
       </c>
       <c r="V9" s="1">
-        <v>21.513324</v>
+        <v>21.513324000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>958.267000</v>
+        <v>958.26700000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.382400</v>
+        <v>-90.382400000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>77458.417756</v>
+        <v>77458.417755999995</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.516227</v>
+        <v>21.516227000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.861000</v>
+        <v>965.86099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.880800</v>
+        <v>-80.880799999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>77469.185934</v>
+        <v>77469.185933999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.519218</v>
+        <v>21.519217999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.101000</v>
+        <v>971.101</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.353500</v>
+        <v>-80.353499999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>77479.662896</v>
+        <v>77479.662895999994</v>
       </c>
       <c r="AK9" s="1">
         <v>21.522129</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.172000</v>
+        <v>979.17200000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.789100</v>
+        <v>-87.789100000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>77490.318946</v>
+        <v>77490.318945999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.525089</v>
+        <v>21.525089000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.442000</v>
+        <v>988.44200000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.507000</v>
+        <v>-102.50700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>77501.412500</v>
+        <v>77501.412500000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.528170</v>
+        <v>21.528169999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.877000</v>
+        <v>999.87699999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>77512.133493</v>
+        <v>77512.133493000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.531148</v>
+        <v>21.531148000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>77522.726056</v>
@@ -2445,225 +2861,225 @@
         <v>21.534091</v>
       </c>
       <c r="BF9" s="1">
-        <v>1054.970000</v>
+        <v>1054.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.319000</v>
+        <v>-226.31899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>77533.914345</v>
+        <v>77533.914344999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.537198</v>
       </c>
       <c r="BK9" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.549000</v>
+        <v>-360.54899999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>77545.263771</v>
+        <v>77545.263770999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.540351</v>
+        <v>21.540351000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.500000</v>
+        <v>1265.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.283000</v>
+        <v>-567.28300000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>77557.662266</v>
+        <v>77557.662265999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.543795</v>
+        <v>21.543794999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-787.302000</v>
+        <v>-787.30200000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>77568.251851</v>
+        <v>77568.251850999994</v>
       </c>
       <c r="BY9" s="1">
         <v>21.546737</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1572.080000</v>
+        <v>1572.08</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1017.020000</v>
+        <v>-1017.02</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>77579.914781</v>
+        <v>77579.914780999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.549976</v>
+        <v>21.549976000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1973.420000</v>
+        <v>1973.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1553.540000</v>
+        <v>-1553.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>77406.373537</v>
+        <v>77406.373537000007</v>
       </c>
       <c r="B10" s="1">
-        <v>21.501770</v>
+        <v>21.50177</v>
       </c>
       <c r="C10" s="1">
-        <v>904.156000</v>
+        <v>904.15599999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.736000</v>
+        <v>-192.73599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>77416.597689</v>
+        <v>77416.597689000002</v>
       </c>
       <c r="G10" s="1">
-        <v>21.504610</v>
+        <v>21.50461</v>
       </c>
       <c r="H10" s="1">
-        <v>921.105000</v>
+        <v>921.10500000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.575000</v>
+        <v>-164.57499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>77427.069606</v>
+        <v>77427.069606000005</v>
       </c>
       <c r="L10" s="1">
-        <v>21.507519</v>
+        <v>21.507518999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>944.267000</v>
+        <v>944.26700000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.892000</v>
+        <v>-118.892</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>77437.512377</v>
+        <v>77437.512377000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.510420</v>
+        <v>21.51042</v>
       </c>
       <c r="R10" s="1">
-        <v>951.374000</v>
+        <v>951.37400000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.985000</v>
+        <v>-103.985</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>77448.312266</v>
+        <v>77448.312265999994</v>
       </c>
       <c r="V10" s="1">
-        <v>21.513420</v>
+        <v>21.51342</v>
       </c>
       <c r="W10" s="1">
-        <v>958.130000</v>
+        <v>958.13</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.437800</v>
+        <v>-90.437799999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>77458.769421</v>
+        <v>77458.769421000005</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.516325</v>
+        <v>21.516324999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.778000</v>
+        <v>965.77800000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.784900</v>
+        <v>-80.784899999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>77469.530126</v>
+        <v>77469.530125999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.519314</v>
+        <v>21.519314000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.909000</v>
+        <v>970.90899999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.384300</v>
+        <v>-80.384299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>77480.014096</v>
+        <v>77480.014095999999</v>
       </c>
       <c r="AK10" s="1">
         <v>21.522226</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.149000</v>
+        <v>979.149</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.818700</v>
+        <v>-87.818700000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>77491.038146</v>
+        <v>77491.038146000006</v>
       </c>
       <c r="AP10" s="1">
         <v>21.525288</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.428000</v>
+        <v>988.428</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.504000</v>
+        <v>-102.504</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>77501.774051</v>
@@ -2672,906 +3088,906 @@
         <v>21.528271</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.888000</v>
+        <v>999.88800000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>77512.492102</v>
+        <v>77512.492102000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.531248</v>
+        <v>21.531248000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.365000</v>
+        <v>-142.36500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>77523.084168</v>
+        <v>77523.084168000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.534190</v>
+        <v>21.534189999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1054.980000</v>
+        <v>1054.98</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.314000</v>
+        <v>-226.31399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>77534.633511</v>
+        <v>77534.633511000007</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.537398</v>
       </c>
       <c r="BK10" s="1">
-        <v>1134.470000</v>
+        <v>1134.47</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.554000</v>
+        <v>-360.55399999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>77545.998385</v>
+        <v>77545.998384999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.540555</v>
+        <v>21.540555000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.490000</v>
+        <v>1265.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.323000</v>
+        <v>-567.32299999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>77557.797673</v>
+        <v>77557.797672999994</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.543833</v>
+        <v>21.543832999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.110000</v>
+        <v>1412.11</v>
       </c>
       <c r="BV10" s="1">
-        <v>-787.207000</v>
+        <v>-787.20699999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>77568.671468</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.546853</v>
+        <v>21.546852999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1572.170000</v>
+        <v>1572.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1016.900000</v>
+        <v>-1016.9</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>77580.437068</v>
+        <v>77580.437067999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.550121</v>
+        <v>21.550121000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.800000</v>
+        <v>1974.8</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1552.980000</v>
+        <v>-1552.98</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>77406.796626</v>
+        <v>77406.796625999996</v>
       </c>
       <c r="B11" s="1">
-        <v>21.501888</v>
+        <v>21.501888000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>904.187000</v>
+        <v>904.18700000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.806000</v>
+        <v>-192.80600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>77416.887268</v>
+        <v>77416.887268000006</v>
       </c>
       <c r="G11" s="1">
-        <v>21.504691</v>
+        <v>21.504691000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>921.504000</v>
+        <v>921.50400000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.579000</v>
+        <v>-164.57900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>77427.367205</v>
+        <v>77427.367205000002</v>
       </c>
       <c r="L11" s="1">
-        <v>21.507602</v>
+        <v>21.507601999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.435000</v>
+        <v>944.43499999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.937000</v>
+        <v>-118.937</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>77437.860569</v>
+        <v>77437.860568999997</v>
       </c>
       <c r="Q11" s="1">
         <v>21.510517</v>
       </c>
       <c r="R11" s="1">
-        <v>951.396000</v>
+        <v>951.39599999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.999000</v>
+        <v>-103.999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>77448.655001</v>
+        <v>77448.655001000006</v>
       </c>
       <c r="V11" s="1">
-        <v>21.513515</v>
+        <v>21.513515000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>958.269000</v>
+        <v>958.26900000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.382200</v>
+        <v>-90.382199999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>77459.115641</v>
+        <v>77459.115640999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.516421</v>
+        <v>21.516421000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.893000</v>
+        <v>965.89300000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.879600</v>
+        <v>-80.879599999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>77470.217581</v>
+        <v>77470.217581000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.519505</v>
+        <v>21.519504999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.805000</v>
+        <v>970.80499999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.406200</v>
+        <v>-80.406199999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>77480.712431</v>
+        <v>77480.712431000007</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.522420</v>
+        <v>21.52242</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.189000</v>
+        <v>979.18899999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.815400</v>
+        <v>-87.815399999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>77491.397777</v>
+        <v>77491.397777000006</v>
       </c>
       <c r="AP11" s="1">
         <v>21.525388</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.422000</v>
+        <v>988.42200000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.528000</v>
+        <v>-102.52800000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>77502.140594</v>
+        <v>77502.140593999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.528372</v>
+        <v>21.528372000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.864000</v>
+        <v>999.86400000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.816000</v>
+        <v>-123.816</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>77512.855838</v>
+        <v>77512.855838000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.531349</v>
+        <v>21.531348999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.370000</v>
+        <v>-142.37</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>77523.764678</v>
+        <v>77523.764678000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.534379</v>
+        <v>21.534379000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>77535.068038</v>
+        <v>77535.068037999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>21.537519</v>
       </c>
       <c r="BK11" s="1">
-        <v>1134.500000</v>
+        <v>1134.5</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.563000</v>
+        <v>-360.56299999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>77546.503769</v>
+        <v>77546.503769000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.540695</v>
+        <v>21.540694999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.480000</v>
+        <v>1265.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.265000</v>
+        <v>-567.26499999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>77558.206376</v>
+        <v>77558.206376000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.543946</v>
+        <v>21.543945999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.970000</v>
+        <v>1411.97</v>
       </c>
       <c r="BV11" s="1">
-        <v>-787.154000</v>
+        <v>-787.154</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>77569.099051</v>
+        <v>77569.099050999997</v>
       </c>
       <c r="BY11" s="1">
         <v>21.546972</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.990000</v>
+        <v>1571.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1016.920000</v>
+        <v>-1016.92</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>77580.951418</v>
+        <v>77580.951417999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.550264</v>
+        <v>21.550263999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1974.690000</v>
+        <v>1974.69</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1553.580000</v>
+        <v>-1553.58</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>77407.070912</v>
+        <v>77407.070911999996</v>
       </c>
       <c r="B12" s="1">
-        <v>21.501964</v>
+        <v>21.501964000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>904.241000</v>
+        <v>904.24099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.880000</v>
+        <v>-192.88</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>77417.234435</v>
+        <v>77417.234435000006</v>
       </c>
       <c r="G12" s="1">
         <v>21.504787</v>
       </c>
       <c r="H12" s="1">
-        <v>921.286000</v>
+        <v>921.28599999999994</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.704000</v>
+        <v>-164.70400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>77427.712420</v>
+        <v>77427.712419999996</v>
       </c>
       <c r="L12" s="1">
-        <v>21.507698</v>
+        <v>21.507698000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>944.325000</v>
+        <v>944.32500000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.078000</v>
+        <v>-119.078</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>77438.210247</v>
+        <v>77438.210246999995</v>
       </c>
       <c r="Q12" s="1">
         <v>21.510614</v>
       </c>
       <c r="R12" s="1">
-        <v>951.344000</v>
+        <v>951.34400000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.022000</v>
+        <v>-104.02200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>77449.341501</v>
+        <v>77449.341501000003</v>
       </c>
       <c r="V12" s="1">
-        <v>21.513706</v>
+        <v>21.513705999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>958.252000</v>
+        <v>958.25199999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.451100</v>
+        <v>-90.451099999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>77459.815484</v>
+        <v>77459.815484000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.516615</v>
+        <v>21.516615000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.865000</v>
+        <v>965.86500000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.880400</v>
+        <v>-80.880399999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>77470.561308</v>
+        <v>77470.561308000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.519600</v>
+        <v>21.519600000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.994000</v>
+        <v>970.99400000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.275000</v>
+        <v>-80.275000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>77481.061129</v>
+        <v>77481.061128999994</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.522517</v>
+        <v>21.522517000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.150000</v>
+        <v>979.15</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.810300</v>
+        <v>-87.810299999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>77491.758832</v>
+        <v>77491.758832000007</v>
       </c>
       <c r="AP12" s="1">
         <v>21.525489</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.424000</v>
+        <v>988.42399999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.501000</v>
+        <v>-102.501</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>77502.817170</v>
+        <v>77502.817169999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.528560</v>
+        <v>21.528559999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.860000</v>
+        <v>999.86</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>77513.527761</v>
+        <v>77513.527761000005</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.531535</v>
+        <v>21.531535000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.364000</v>
+        <v>-142.364</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>77524.194710</v>
+        <v>77524.194709999996</v>
       </c>
       <c r="BE12" s="1">
         <v>21.534499</v>
       </c>
       <c r="BF12" s="1">
-        <v>1054.970000</v>
+        <v>1054.97</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.328000</v>
+        <v>-226.328</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>77535.471750</v>
+        <v>77535.471749999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.537631</v>
+        <v>21.537631000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.557000</v>
+        <v>-360.55700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>77546.922391</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.540812</v>
+        <v>21.540811999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.450000</v>
+        <v>1265.45</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.283000</v>
+        <v>-567.28300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>77558.632440</v>
+        <v>77558.632440000001</v>
       </c>
       <c r="BT12" s="1">
         <v>21.544065</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="BV12" s="1">
-        <v>-787.191000</v>
+        <v>-787.19100000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>77569.529547</v>
+        <v>77569.529546999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.547092</v>
+        <v>21.547091999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1572.100000</v>
+        <v>1572.1</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1016.970000</v>
+        <v>-1016.97</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>77581.504457</v>
+        <v>77581.504457000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.550418</v>
+        <v>21.550418000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1973.630000</v>
+        <v>1973.63</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1553.510000</v>
+        <v>-1553.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>77407.412159</v>
       </c>
       <c r="B13" s="1">
-        <v>21.502059</v>
+        <v>21.502058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>904.291000</v>
+        <v>904.29100000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.844000</v>
+        <v>-192.84399999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>77417.577170</v>
+        <v>77417.577170000004</v>
       </c>
       <c r="G13" s="1">
         <v>21.504883</v>
       </c>
       <c r="H13" s="1">
-        <v>921.849000</v>
+        <v>921.84900000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.392000</v>
+        <v>-164.392</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>77428.057142</v>
+        <v>77428.057142000005</v>
       </c>
       <c r="L13" s="1">
-        <v>21.507794</v>
+        <v>21.507794000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>944.380000</v>
+        <v>944.38</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.070000</v>
+        <v>-119.07</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>77438.906631</v>
+        <v>77438.906631000005</v>
       </c>
       <c r="Q13" s="1">
         <v>21.510807</v>
       </c>
       <c r="R13" s="1">
-        <v>951.313000</v>
+        <v>951.31299999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.988000</v>
+        <v>-103.988</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>77449.684233</v>
+        <v>77449.684233000007</v>
       </c>
       <c r="V13" s="1">
-        <v>21.513801</v>
+        <v>21.513801000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>958.290000</v>
+        <v>958.29</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.397800</v>
+        <v>-90.397800000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>77460.163210</v>
+        <v>77460.163209999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.516712</v>
+        <v>21.516711999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.830000</v>
+        <v>965.83</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.823700</v>
+        <v>-80.823700000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>77470.902068</v>
+        <v>77470.902067999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.519695</v>
+        <v>21.519694999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.989000</v>
+        <v>970.98900000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.254900</v>
+        <v>-80.254900000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>77481.718816</v>
+        <v>77481.718815999993</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.522700</v>
+        <v>21.5227</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.153000</v>
+        <v>979.15300000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.821400</v>
+        <v>-87.821399999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>77492.437857</v>
+        <v>77492.437856999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.525677</v>
+        <v>21.525677000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.416000</v>
+        <v>988.41600000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.504000</v>
+        <v>-102.504</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>77503.232289</v>
+        <v>77503.232289000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.528676</v>
+        <v>21.528676000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.886000</v>
+        <v>999.88599999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>77513.961251</v>
+        <v>77513.961251000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.531656</v>
+        <v>21.531656000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.364000</v>
+        <v>-142.364</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>77524.553814</v>
+        <v>77524.553813999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.534598</v>
+        <v>21.534597999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1054.940000</v>
+        <v>1054.94</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.336000</v>
+        <v>-226.33600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>77535.846230</v>
+        <v>77535.846229999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.537735</v>
+        <v>21.537735000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1134.500000</v>
+        <v>1134.5</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.558000</v>
+        <v>-360.55799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>77547.319191</v>
+        <v>77547.319191000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.540922</v>
+        <v>21.540921999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.480000</v>
+        <v>1265.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.248000</v>
+        <v>-567.24800000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>77559.056023</v>
+        <v>77559.056022999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.544182</v>
+        <v>21.544181999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.730000</v>
+        <v>1411.73</v>
       </c>
       <c r="BV13" s="1">
-        <v>-787.266000</v>
+        <v>-787.26599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>77569.961561</v>
+        <v>77569.961561000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.547212</v>
+        <v>21.547211999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1572.010000</v>
+        <v>1572.01</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1016.900000</v>
+        <v>-1016.9</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>77582.034713</v>
+        <v>77582.034713000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.550565</v>
+        <v>21.550564999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1974.770000</v>
+        <v>1974.77</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1552.750000</v>
+        <v>-1552.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>77407.758367</v>
+        <v>77407.758367000002</v>
       </c>
       <c r="B14" s="1">
-        <v>21.502155</v>
+        <v>21.502154999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>904.288000</v>
+        <v>904.28800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.883000</v>
+        <v>-192.88300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>77418.267601</v>
@@ -3580,178 +3996,178 @@
         <v>21.505074</v>
       </c>
       <c r="H14" s="1">
-        <v>920.852000</v>
+        <v>920.85199999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.624000</v>
+        <v>-164.624</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>77428.751539</v>
+        <v>77428.751539000004</v>
       </c>
       <c r="L14" s="1">
         <v>21.507987</v>
       </c>
       <c r="M14" s="1">
-        <v>944.453000</v>
+        <v>944.45299999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.992000</v>
+        <v>-118.992</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>77439.255815</v>
+        <v>77439.255814999997</v>
       </c>
       <c r="Q14" s="1">
         <v>21.510904</v>
       </c>
       <c r="R14" s="1">
-        <v>951.309000</v>
+        <v>951.30899999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.958000</v>
+        <v>-103.958</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>77450.028921</v>
+        <v>77450.028921000005</v>
       </c>
       <c r="V14" s="1">
         <v>21.513897</v>
       </c>
       <c r="W14" s="1">
-        <v>958.204000</v>
+        <v>958.20399999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.435300</v>
+        <v>-90.435299999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>77460.510873</v>
+        <v>77460.510873000007</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.516809</v>
+        <v>21.516808999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.906000</v>
+        <v>965.90599999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.835700</v>
+        <v>-80.835700000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>77471.565211</v>
+        <v>77471.565210999994</v>
       </c>
       <c r="AF14" s="1">
         <v>21.519879</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.000000</v>
+        <v>971</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.293300</v>
+        <v>-80.293300000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>77482.107688</v>
+        <v>77482.107688000004</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.522808</v>
+        <v>21.522808000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.163000</v>
+        <v>979.16300000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.822000</v>
+        <v>-87.822000000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>77492.872351</v>
+        <v>77492.872350999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.525798</v>
+        <v>21.525798000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.443000</v>
+        <v>988.44299999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.525000</v>
+        <v>-102.52500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>77503.598833</v>
+        <v>77503.598832999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.528777</v>
+        <v>21.528777000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.872000</v>
+        <v>999.87199999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.805000</v>
+        <v>-123.80500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>77514.320851</v>
+        <v>77514.320850999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.531756</v>
+        <v>21.531756000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.386000</v>
+        <v>-142.386</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>77524.919364</v>
+        <v>77524.919364000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.534700</v>
+        <v>21.534700000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.345000</v>
+        <v>-226.345</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>77536.280229</v>
+        <v>77536.280228999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.537856</v>
+        <v>21.537856000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.552000</v>
+        <v>-360.55200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>77548.132629</v>
@@ -3760,1874 +4176,1874 @@
         <v>21.541148</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.450000</v>
+        <v>1265.45</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.287000</v>
+        <v>-567.28700000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>77559.462743</v>
+        <v>77559.462742999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.544295</v>
+        <v>21.544295000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="BV14" s="1">
-        <v>-787.335000</v>
+        <v>-787.33500000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>77570.383989</v>
+        <v>77570.383988999994</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.547329</v>
+        <v>21.547329000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1572.050000</v>
+        <v>1572.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1016.980000</v>
+        <v>-1016.98</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>77582.551512</v>
+        <v>77582.551512000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.550709</v>
+        <v>21.550709000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1553.280000</v>
+        <v>-1553.28</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>77408.438878</v>
+        <v>77408.438878000001</v>
       </c>
       <c r="B15" s="1">
-        <v>21.502344</v>
+        <v>21.502344000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>904.292000</v>
+        <v>904.29200000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.940000</v>
+        <v>-192.94</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>77418.610338</v>
+        <v>77418.610337999999</v>
       </c>
       <c r="G15" s="1">
-        <v>21.505170</v>
+        <v>21.50517</v>
       </c>
       <c r="H15" s="1">
-        <v>921.030000</v>
+        <v>921.03</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.035000</v>
+        <v>-164.035</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>77429.098741</v>
+        <v>77429.098740999994</v>
       </c>
       <c r="L15" s="1">
-        <v>21.508083</v>
+        <v>21.508082999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>944.439000</v>
+        <v>944.43899999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.967000</v>
+        <v>-118.967</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>77439.602517</v>
+        <v>77439.602517000007</v>
       </c>
       <c r="Q15" s="1">
         <v>21.511001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.362000</v>
+        <v>951.36199999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.001000</v>
+        <v>-104.001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>77450.677688</v>
+        <v>77450.677687999996</v>
       </c>
       <c r="V15" s="1">
         <v>21.514077</v>
       </c>
       <c r="W15" s="1">
-        <v>958.240000</v>
+        <v>958.24</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.273800</v>
+        <v>-90.273799999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>77461.177217</v>
+        <v>77461.177217000004</v>
       </c>
       <c r="AA15" s="1">
         <v>21.516994</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.914000</v>
+        <v>965.91399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.798200</v>
+        <v>-80.798199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>77471.931292</v>
+        <v>77471.931291999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.519981</v>
+        <v>21.519981000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.071000</v>
+        <v>971.07100000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.267100</v>
+        <v>-80.267099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>77482.456861</v>
+        <v>77482.456860999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.522905</v>
+        <v>21.522905000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.164000</v>
+        <v>979.16399999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.849400</v>
+        <v>-87.849400000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>77493.232975</v>
+        <v>77493.232975000006</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.525898</v>
+        <v>21.525898000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.420000</v>
+        <v>988.42</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.508000</v>
+        <v>-102.508</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>77503.961441</v>
+        <v>77503.961441000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.528878</v>
+        <v>21.528877999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.872000</v>
+        <v>999.87199999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.822000</v>
+        <v>-123.822</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>77514.747906</v>
+        <v>77514.747906000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.531874</v>
+        <v>21.531873999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.362000</v>
+        <v>-142.36199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>77525.336013</v>
+        <v>77525.336012999993</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.534816</v>
+        <v>21.534815999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1054.980000</v>
+        <v>1054.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.345000</v>
+        <v>-226.345</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>77536.622965</v>
+        <v>77536.622965000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.537951</v>
       </c>
       <c r="BK15" s="1">
-        <v>1134.470000</v>
+        <v>1134.47</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.568000</v>
+        <v>-360.56799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>77548.532443</v>
+        <v>77548.532443000004</v>
       </c>
       <c r="BO15" s="1">
         <v>21.541259</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.460000</v>
+        <v>1265.46</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.277000</v>
+        <v>-567.27700000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>77559.878390</v>
+        <v>77559.878389999998</v>
       </c>
       <c r="BT15" s="1">
         <v>21.544411</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="BV15" s="1">
-        <v>-787.456000</v>
+        <v>-787.45600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>77570.804761</v>
+        <v>77570.804761000007</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.547446</v>
+        <v>21.547446000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1572.040000</v>
+        <v>1572.04</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1016.850000</v>
+        <v>-1016.85</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>77583.106071</v>
+        <v>77583.106071000002</v>
       </c>
       <c r="CD15" s="1">
         <v>21.550863</v>
       </c>
       <c r="CE15" s="1">
-        <v>1973.950000</v>
+        <v>1973.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1553.500000</v>
+        <v>-1553.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>77408.781899</v>
+        <v>77408.781898999994</v>
       </c>
       <c r="B16" s="1">
-        <v>21.502439</v>
+        <v>21.502438999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.272000</v>
+        <v>904.27200000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.965000</v>
+        <v>-192.965</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>77418.956048</v>
+        <v>77418.956047999993</v>
       </c>
       <c r="G16" s="1">
-        <v>21.505266</v>
+        <v>21.505265999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>921.192000</v>
+        <v>921.19200000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.033000</v>
+        <v>-164.03299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>77429.444450</v>
+        <v>77429.444449999995</v>
       </c>
       <c r="L16" s="1">
-        <v>21.508179</v>
+        <v>21.508178999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>944.246000</v>
+        <v>944.24599999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.934000</v>
+        <v>-118.934</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>77440.263189</v>
+        <v>77440.263189000005</v>
       </c>
       <c r="Q16" s="1">
         <v>21.511184</v>
       </c>
       <c r="R16" s="1">
-        <v>951.362000</v>
+        <v>951.36199999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.000000</v>
+        <v>-104</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>77451.060600</v>
+        <v>77451.060599999997</v>
       </c>
       <c r="V16" s="1">
         <v>21.514184</v>
       </c>
       <c r="W16" s="1">
-        <v>958.198000</v>
+        <v>958.19799999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.399200</v>
+        <v>-90.399199999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>77461.554456</v>
+        <v>77461.554455999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.517098</v>
+        <v>21.517098000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.681000</v>
+        <v>965.68100000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.771900</v>
+        <v>-80.771900000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>77472.274986</v>
+        <v>77472.274986000004</v>
       </c>
       <c r="AF16" s="1">
         <v>21.520076</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.072000</v>
+        <v>971.072</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.298100</v>
+        <v>-80.298100000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>77482.804557</v>
+        <v>77482.804556999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.523001</v>
+        <v>21.523001000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.131000</v>
+        <v>979.13099999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.778200</v>
+        <v>-87.778199999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>77493.592046</v>
+        <v>77493.592046000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.525998</v>
+        <v>21.525998000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.433000</v>
+        <v>988.43299999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.509000</v>
+        <v>-102.509</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>77504.394911</v>
+        <v>77504.394910999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.528999</v>
+        <v>21.528998999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.871000</v>
+        <v>999.87099999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.805000</v>
+        <v>-123.80500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>77515.038065</v>
+        <v>77515.038065000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>21.531955</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.356000</v>
+        <v>-142.35599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>77525.641541</v>
+        <v>77525.641541000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.534900</v>
+        <v>21.5349</v>
       </c>
       <c r="BF16" s="1">
-        <v>1054.980000</v>
+        <v>1054.98</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.339000</v>
+        <v>-226.339</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>77536.993476</v>
+        <v>77536.993476000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.538054</v>
+        <v>21.538053999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1134.470000</v>
+        <v>1134.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.561000</v>
+        <v>-360.56099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>77548.945076</v>
+        <v>77548.945076000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.541374</v>
+        <v>21.541374000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.460000</v>
+        <v>1265.46</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.310000</v>
+        <v>-567.30999999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>77560.294055</v>
+        <v>77560.294055000006</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.544526</v>
+        <v>21.544526000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.670000</v>
+        <v>1411.67</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.630000</v>
+        <v>-787.63</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>77571.256119</v>
+        <v>77571.256118999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.547571</v>
+        <v>21.547571000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1572.110000</v>
+        <v>1572.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1016.920000</v>
+        <v>-1016.92</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>77583.633298</v>
+        <v>77583.633298000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.551009</v>
+        <v>21.551009000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1552.360000</v>
+        <v>-1552.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>77409.122393</v>
+        <v>77409.122392999998</v>
       </c>
       <c r="B17" s="1">
-        <v>21.502534</v>
+        <v>21.502534000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.293000</v>
+        <v>904.29300000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.066000</v>
+        <v>-193.066</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>77419.616223</v>
+        <v>77419.616223000005</v>
       </c>
       <c r="G17" s="1">
-        <v>21.505449</v>
+        <v>21.505448999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>921.117000</v>
+        <v>921.11699999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.061000</v>
+        <v>-165.06100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>77430.113205</v>
+        <v>77430.113205000001</v>
       </c>
       <c r="L17" s="1">
-        <v>21.508365</v>
+        <v>21.508365000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>944.275000</v>
+        <v>944.27499999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.009000</v>
+        <v>-119.009</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>77440.647621</v>
+        <v>77440.647620999996</v>
       </c>
       <c r="Q17" s="1">
         <v>21.511291</v>
       </c>
       <c r="R17" s="1">
-        <v>951.307000</v>
+        <v>951.30700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.019000</v>
+        <v>-104.01900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>77451.403334</v>
+        <v>77451.403334000002</v>
       </c>
       <c r="V17" s="1">
-        <v>21.514279</v>
+        <v>21.514278999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>958.354000</v>
+        <v>958.35400000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.423600</v>
+        <v>-90.423599999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>77461.905129</v>
+        <v>77461.905129000006</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.517196</v>
+        <v>21.517195999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.858000</v>
+        <v>965.85799999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.860400</v>
+        <v>-80.860399999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>77472.618249</v>
+        <v>77472.618249000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.520172</v>
+        <v>21.520171999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.115000</v>
+        <v>971.11500000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.326500</v>
+        <v>-80.326499999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>77483.234629</v>
+        <v>77483.234628999999</v>
       </c>
       <c r="AK17" s="1">
         <v>21.523121</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.141000</v>
+        <v>979.14099999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.810500</v>
+        <v>-87.810500000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>77494.015638</v>
+        <v>77494.015637999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.526115</v>
+        <v>21.526115000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.425000</v>
+        <v>988.42499999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.516000</v>
+        <v>-102.51600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>77504.691520</v>
+        <v>77504.691519999993</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.529081</v>
+        <v>21.529081000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.868000</v>
+        <v>999.86800000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.824000</v>
+        <v>-123.824</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>77515.398658</v>
+        <v>77515.398658000006</v>
       </c>
       <c r="AZ17" s="1">
         <v>21.532055</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.377000</v>
+        <v>-142.37700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>77526.003123</v>
+        <v>77526.003123000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.535001</v>
+        <v>21.535001000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.333000</v>
+        <v>-226.333</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>77537.373412</v>
+        <v>77537.373412000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.538159</v>
       </c>
       <c r="BK17" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.562000</v>
+        <v>-360.56200000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>77549.766451</v>
+        <v>77549.766451000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.541602</v>
+        <v>21.541602000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.460000</v>
+        <v>1265.46</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.287000</v>
+        <v>-567.28700000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>77560.733493</v>
+        <v>77560.733493000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.544648</v>
+        <v>21.544647999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.620000</v>
+        <v>1411.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.726000</v>
+        <v>-787.726</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>77571.688631</v>
+        <v>77571.688630999997</v>
       </c>
       <c r="BY17" s="1">
         <v>21.547691</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1572.080000</v>
+        <v>1572.08</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1016.950000</v>
+        <v>-1016.95</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>77584.152599</v>
+        <v>77584.152598999994</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.551153</v>
+        <v>21.551152999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1975.160000</v>
+        <v>1975.16</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1553.160000</v>
+        <v>-1553.16</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>77409.780062</v>
+        <v>77409.780062000005</v>
       </c>
       <c r="B18" s="1">
-        <v>21.502717</v>
+        <v>21.502717000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>904.229000</v>
+        <v>904.22900000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.035000</v>
+        <v>-193.035</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>77419.990703</v>
+        <v>77419.990703000003</v>
       </c>
       <c r="G18" s="1">
-        <v>21.505553</v>
+        <v>21.505552999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>921.104000</v>
+        <v>921.10400000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.519000</v>
+        <v>-164.51900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>77430.478114</v>
+        <v>77430.478113999998</v>
       </c>
       <c r="L18" s="1">
-        <v>21.508466</v>
+        <v>21.508465999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.314000</v>
+        <v>944.31399999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.087000</v>
+        <v>-119.087</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>77440.999251</v>
+        <v>77440.999251000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.511389</v>
+        <v>21.511389000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>951.309000</v>
+        <v>951.30899999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.030000</v>
+        <v>-104.03</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>77451.750533</v>
+        <v>77451.750532999999</v>
       </c>
       <c r="V18" s="1">
-        <v>21.514375</v>
+        <v>21.514375000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>958.228000</v>
+        <v>958.22799999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.486800</v>
+        <v>-90.486800000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>77462.256793</v>
+        <v>77462.256792999993</v>
       </c>
       <c r="AA18" s="1">
         <v>21.517294</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.835000</v>
+        <v>965.83500000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.895000</v>
+        <v>-80.894999999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>77473.050730</v>
+        <v>77473.050730000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.520292</v>
+        <v>21.520292000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.063000</v>
+        <v>971.06299999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.309400</v>
+        <v>-80.309399999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>77483.500443</v>
+        <v>77483.500442999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.523195</v>
+        <v>21.523195000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.175000</v>
+        <v>979.17499999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.830300</v>
+        <v>-87.830299999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>77494.314221</v>
+        <v>77494.314220999993</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.526198</v>
+        <v>21.526198000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.432000</v>
+        <v>988.43200000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.513000</v>
+        <v>-102.51300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>77505.054094</v>
+        <v>77505.054094000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.529182</v>
+        <v>21.529181999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.874000</v>
+        <v>999.87400000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.805000</v>
+        <v>-123.80500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>77515.755776</v>
+        <v>77515.755776000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.532154</v>
+        <v>21.532153999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.550000</v>
+        <v>1009.55</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.372000</v>
+        <v>-142.37200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>77526.364211</v>
+        <v>77526.364210999993</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.535101</v>
+        <v>21.535101000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1054.970000</v>
+        <v>1054.97</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.316000</v>
+        <v>-226.316</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>77538.123859</v>
+        <v>77538.123858999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.538368</v>
+        <v>21.538367999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.553000</v>
+        <v>-360.553</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>77550.186563</v>
+        <v>77550.186562999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.541718</v>
+        <v>21.541717999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.450000</v>
+        <v>1265.45</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.299000</v>
+        <v>-567.29899999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>77561.159556</v>
+        <v>77561.159555999999</v>
       </c>
       <c r="BT18" s="1">
         <v>21.544767</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.710000</v>
+        <v>1411.71</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.899000</v>
+        <v>-787.899</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>77572.109238</v>
+        <v>77572.109238000005</v>
       </c>
       <c r="BY18" s="1">
         <v>21.547808</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1572.080000</v>
+        <v>1572.08</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1017.050000</v>
+        <v>-1017.05</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>77585.028564</v>
+        <v>77585.028563999993</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.551397</v>
+        <v>21.551397000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.200000</v>
+        <v>1974.2</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1553.450000</v>
+        <v>-1553.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>77410.147596</v>
+        <v>77410.147595999995</v>
       </c>
       <c r="B19" s="1">
-        <v>21.502819</v>
+        <v>21.502818999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>904.186000</v>
+        <v>904.18600000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.007000</v>
+        <v>-193.00700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>77420.334430</v>
+        <v>77420.334430000003</v>
       </c>
       <c r="G19" s="1">
-        <v>21.505648</v>
+        <v>21.505648000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>921.271000</v>
+        <v>921.27099999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.452000</v>
+        <v>-164.452</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>77430.826304</v>
+        <v>77430.826304000002</v>
       </c>
       <c r="L19" s="1">
-        <v>21.508563</v>
+        <v>21.508562999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>944.224000</v>
+        <v>944.22400000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.019000</v>
+        <v>-119.01900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>77441.347443</v>
+        <v>77441.347443000006</v>
       </c>
       <c r="Q19" s="1">
         <v>21.511485</v>
       </c>
       <c r="R19" s="1">
-        <v>951.319000</v>
+        <v>951.31899999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.011000</v>
+        <v>-104.011</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>77452.187509</v>
+        <v>77452.187508999996</v>
       </c>
       <c r="V19" s="1">
-        <v>21.514497</v>
+        <v>21.514496999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>958.223000</v>
+        <v>958.22299999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.377400</v>
+        <v>-90.377399999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>77462.695751</v>
+        <v>77462.695751000007</v>
       </c>
       <c r="AA19" s="1">
         <v>21.517415</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.928000</v>
+        <v>965.928</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.894800</v>
+        <v>-80.894800000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>77473.331961</v>
+        <v>77473.331961000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.520370</v>
+        <v>21.52037</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.992000</v>
+        <v>970.99199999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.366000</v>
+        <v>-80.366</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>77483.849627</v>
+        <v>77483.849627000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.523292</v>
+        <v>21.523292000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.161000</v>
+        <v>979.16099999999994</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.826400</v>
+        <v>-87.826400000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>77494.673326</v>
+        <v>77494.673326000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.526298</v>
+        <v>21.526298000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.424000</v>
+        <v>988.42399999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.503000</v>
+        <v>-102.503</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>77505.423119</v>
+        <v>77505.423118999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.529284</v>
+        <v>21.529284000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>77516.473983</v>
+        <v>77516.473983000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.532354</v>
+        <v>21.532354000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.378000</v>
+        <v>-142.37799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>77527.085394</v>
+        <v>77527.085393999994</v>
       </c>
       <c r="BE19" s="1">
         <v>21.535301</v>
       </c>
       <c r="BF19" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.318000</v>
+        <v>-226.31800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>77538.498371</v>
+        <v>77538.498370999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.538472</v>
+        <v>21.538471999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.556000</v>
+        <v>-360.55599999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>77550.578903</v>
+        <v>77550.578903000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.541827</v>
+        <v>21.541827000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.470000</v>
+        <v>1265.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.270000</v>
+        <v>-567.27</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>77561.572228</v>
+        <v>77561.572228000005</v>
       </c>
       <c r="BT19" s="1">
         <v>21.544881</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.800000</v>
+        <v>1411.8</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.855000</v>
+        <v>-787.85500000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>77572.851290</v>
+        <v>77572.851290000006</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.548014</v>
+        <v>21.548013999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1572.030000</v>
+        <v>1572.03</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1016.950000</v>
+        <v>-1016.95</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>77585.235367</v>
+        <v>77585.235367000001</v>
       </c>
       <c r="CD19" s="1">
         <v>21.551454</v>
       </c>
       <c r="CE19" s="1">
-        <v>1974.910000</v>
+        <v>1974.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1552.130000</v>
+        <v>-1552.13</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>77410.490828</v>
+        <v>77410.490827999995</v>
       </c>
       <c r="B20" s="1">
-        <v>21.502914</v>
+        <v>21.502914000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>904.161000</v>
+        <v>904.16099999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.989000</v>
+        <v>-192.989</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>77420.679646</v>
+        <v>77420.679646000004</v>
       </c>
       <c r="G20" s="1">
         <v>21.505744</v>
       </c>
       <c r="H20" s="1">
-        <v>921.295000</v>
+        <v>921.29499999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.416000</v>
+        <v>-164.416</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>77431.251378</v>
+        <v>77431.251378000001</v>
       </c>
       <c r="L20" s="1">
-        <v>21.508681</v>
+        <v>21.508680999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>944.217000</v>
+        <v>944.21699999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.967000</v>
+        <v>-118.967</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>77441.769080</v>
+        <v>77441.769079999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.511603</v>
+        <v>21.511603000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>951.351000</v>
+        <v>951.351</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.996000</v>
+        <v>-103.996</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>77452.459845</v>
+        <v>77452.459845000005</v>
       </c>
       <c r="V20" s="1">
-        <v>21.514572</v>
+        <v>21.514572000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>958.134000</v>
+        <v>958.13400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.314100</v>
+        <v>-90.314099999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>77462.960266</v>
+        <v>77462.960265999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.517489</v>
+        <v>21.517489000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.914000</v>
+        <v>965.91399999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.892400</v>
+        <v>-80.892399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>77473.674697</v>
+        <v>77473.674696999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.520465</v>
+        <v>21.520465000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.058000</v>
+        <v>971.05799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.262900</v>
+        <v>-80.262900000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>77484.196331</v>
+        <v>77484.196330999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.523388</v>
+        <v>21.523388000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.188000</v>
+        <v>979.18799999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.824700</v>
+        <v>-87.824700000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>77495.033917</v>
+        <v>77495.033916999993</v>
       </c>
       <c r="AP20" s="1">
         <v>21.526398</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.440000</v>
+        <v>988.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.520000</v>
+        <v>-102.52</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>77506.149788</v>
+        <v>77506.149787999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.529486</v>
+        <v>21.529485999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.871000</v>
+        <v>999.87099999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>77516.831599</v>
+        <v>77516.831598999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>21.532453</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.510000</v>
+        <v>1009.51</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.363000</v>
+        <v>-142.363</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>77527.444993</v>
+        <v>77527.444992999997</v>
       </c>
       <c r="BE20" s="1">
         <v>21.535401</v>
       </c>
       <c r="BF20" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.323000</v>
+        <v>-226.32300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>77538.874803</v>
+        <v>77538.874802999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.538576</v>
+        <v>21.538575999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.558000</v>
+        <v>-360.55799999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>77551.319189</v>
+        <v>77551.319189000002</v>
       </c>
       <c r="BO20" s="1">
         <v>21.542033</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.490000</v>
+        <v>1265.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.285000</v>
+        <v>-567.28499999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>77562.313251</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.545087</v>
+        <v>21.545086999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.930000</v>
+        <v>1411.93</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.951000</v>
+        <v>-787.95100000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>77572.974789</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.548049</v>
+        <v>21.548048999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1572.100000</v>
+        <v>1572.1</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1017.000000</v>
+        <v>-1017</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>77585.753684</v>
+        <v>77585.753683999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.551598</v>
+        <v>21.551597999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1973.190000</v>
+        <v>1973.19</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1552.060000</v>
+        <v>-1552.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>77410.833563</v>
+        <v>77410.833562999993</v>
       </c>
       <c r="B21" s="1">
-        <v>21.503009</v>
+        <v>21.503008999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>904.196000</v>
+        <v>904.19600000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.944000</v>
+        <v>-192.94399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>77421.106237</v>
       </c>
       <c r="G21" s="1">
-        <v>21.505863</v>
+        <v>21.505863000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>921.317000</v>
+        <v>921.31700000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.619000</v>
+        <v>-164.619</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>77431.518224</v>
+        <v>77431.518223999999</v>
       </c>
       <c r="L21" s="1">
-        <v>21.508755</v>
+        <v>21.508755000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>944.519000</v>
+        <v>944.51900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.799000</v>
+        <v>-118.79900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>77442.054770</v>
+        <v>77442.054770000002</v>
       </c>
       <c r="Q21" s="1">
         <v>21.511682</v>
       </c>
       <c r="R21" s="1">
-        <v>951.386000</v>
+        <v>951.38599999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.967000</v>
+        <v>-103.967</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>77452.808003</v>
+        <v>77452.808002999998</v>
       </c>
       <c r="V21" s="1">
-        <v>21.514669</v>
+        <v>21.514669000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.285000</v>
+        <v>958.28499999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.454400</v>
+        <v>-90.454400000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>77463.310294</v>
+        <v>77463.310293999995</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.517586</v>
+        <v>21.517586000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.881000</v>
+        <v>965.88099999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.853400</v>
+        <v>-80.853399999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>77474.017466</v>
+        <v>77474.017466000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.520560</v>
+        <v>21.52056</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.256000</v>
+        <v>971.25599999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.291300</v>
+        <v>-80.291300000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>77484.897210</v>
+        <v>77484.897209999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.523583</v>
+        <v>21.523582999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.162000</v>
+        <v>979.16200000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.827100</v>
+        <v>-87.827100000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>77495.758110</v>
+        <v>77495.758109999995</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.526599</v>
+        <v>21.526599000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.437000</v>
+        <v>988.43700000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.504000</v>
+        <v>-102.504</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>77506.545597</v>
+        <v>77506.545597000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.529596</v>
+        <v>21.529596000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.873000</v>
+        <v>999.87300000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>77517.189718</v>
+        <v>77517.189717999994</v>
       </c>
       <c r="AZ21" s="1">
         <v>21.532553</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.370000</v>
+        <v>-142.37</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>77527.806576</v>
+        <v>77527.806576000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.535502</v>
+        <v>21.535502000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.321000</v>
+        <v>-226.321</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>77539.566723</v>
+        <v>77539.566722999996</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.538769</v>
+        <v>21.538768999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.541000</v>
+        <v>-360.541</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>77551.829344</v>
+        <v>77551.829343999998</v>
       </c>
       <c r="BO21" s="1">
         <v>21.542175</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.480000</v>
+        <v>1265.48</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.266000</v>
+        <v>-567.26599999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>77562.428324</v>
+        <v>77562.428323999993</v>
       </c>
       <c r="BT21" s="1">
         <v>21.545119</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.050000</v>
+        <v>1412.05</v>
       </c>
       <c r="BV21" s="1">
-        <v>-787.924000</v>
+        <v>-787.92399999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>77573.402309</v>
+        <v>77573.402308999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.548167</v>
+        <v>21.548166999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1572.040000</v>
+        <v>1572.04</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1016.920000</v>
+        <v>-1016.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>77586.269555</v>
+        <v>77586.269555000006</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.551742</v>
+        <v>21.551742000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1973.190000</v>
+        <v>1973.19</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1553.480000</v>
+        <v>-1553.48</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>77411.262106</v>
+        <v>77411.262105999995</v>
       </c>
       <c r="B22" s="1">
         <v>21.503128</v>
       </c>
       <c r="C22" s="1">
-        <v>904.229000</v>
+        <v>904.22900000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.038000</v>
+        <v>-193.03800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>77421.376525</v>
@@ -5636,1268 +6052,1269 @@
         <v>21.505938</v>
       </c>
       <c r="H22" s="1">
-        <v>921.118000</v>
+        <v>921.11800000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.824000</v>
+        <v>-164.82400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>77431.864929</v>
+        <v>77431.864929000003</v>
       </c>
       <c r="L22" s="1">
         <v>21.508851</v>
       </c>
       <c r="M22" s="1">
-        <v>944.288000</v>
+        <v>944.28800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.995000</v>
+        <v>-118.995</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>77442.403425</v>
+        <v>77442.403424999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.511779</v>
+        <v>21.511779000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.399000</v>
+        <v>951.399</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.963000</v>
+        <v>-103.96299999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>77453.147267</v>
+        <v>77453.147266999993</v>
       </c>
       <c r="V22" s="1">
-        <v>21.514763</v>
+        <v>21.514762999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>958.291000</v>
+        <v>958.29100000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.446600</v>
+        <v>-90.446600000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>77464.018580</v>
+        <v>77464.018580000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.517783</v>
+        <v>21.517783000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.889000</v>
+        <v>965.88900000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.951200</v>
+        <v>-80.9512</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>77474.703430</v>
+        <v>77474.703429999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.520751</v>
+        <v>21.520751000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.164000</v>
+        <v>971.16399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.436200</v>
+        <v>-80.436199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>77485.242393</v>
+        <v>77485.242392999993</v>
       </c>
       <c r="AK22" s="1">
         <v>21.523678</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.156000</v>
+        <v>979.15599999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.830500</v>
+        <v>-87.830500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>77496.139002</v>
+        <v>77496.139001999996</v>
       </c>
       <c r="AP22" s="1">
         <v>21.526705</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.424000</v>
+        <v>988.42399999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.516000</v>
+        <v>-102.51600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>77506.910158</v>
+        <v>77506.910157999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.529697</v>
+        <v>21.529696999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.871000</v>
+        <v>999.87099999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.802000</v>
+        <v>-123.80200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>77517.866254</v>
+        <v>77517.866253999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.532741</v>
+        <v>21.532741000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.376000</v>
+        <v>-142.376</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>77528.481168</v>
+        <v>77528.481167999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.535689</v>
+        <v>21.535689000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.309000</v>
+        <v>-226.309</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>77540.000753</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.538889</v>
+        <v>21.538889000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.545000</v>
+        <v>-360.54500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>77552.239504</v>
+        <v>77552.239503999997</v>
       </c>
       <c r="BO22" s="1">
         <v>21.542289</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.440000</v>
+        <v>1265.44</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.326000</v>
+        <v>-567.32600000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>77562.868274</v>
+        <v>77562.868273999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.545241</v>
+        <v>21.545241000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1412.130000</v>
+        <v>1412.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-787.844000</v>
+        <v>-787.84400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>77573.834820</v>
+        <v>77573.834820000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.548287</v>
+        <v>21.548286999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.960000</v>
+        <v>1571.96</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1016.960000</v>
+        <v>-1016.96</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>77586.789828</v>
+        <v>77586.789827999994</v>
       </c>
       <c r="CD22" s="1">
         <v>21.551886</v>
       </c>
       <c r="CE22" s="1">
-        <v>1973.070000</v>
+        <v>1973.07</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1553.220000</v>
+        <v>-1553.22</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>77411.531535</v>
+        <v>77411.531535000002</v>
       </c>
       <c r="B23" s="1">
-        <v>21.503203</v>
+        <v>21.503202999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>904.210000</v>
+        <v>904.21</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.010000</v>
+        <v>-193.01</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>77421.722263</v>
+        <v>77421.722263000003</v>
       </c>
       <c r="G23" s="1">
         <v>21.506034</v>
       </c>
       <c r="H23" s="1">
-        <v>921.432000</v>
+        <v>921.43200000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.541000</v>
+        <v>-164.541</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>77432.207181</v>
+        <v>77432.207181000005</v>
       </c>
       <c r="L23" s="1">
-        <v>21.508946</v>
+        <v>21.508946000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>944.433000</v>
+        <v>944.43299999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.995000</v>
+        <v>-118.995</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>77442.753601</v>
+        <v>77442.753601000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.511876</v>
+        <v>21.511876000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>951.371000</v>
+        <v>951.37099999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.022000</v>
+        <v>-104.02200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>77453.830756</v>
+        <v>77453.830755999996</v>
       </c>
       <c r="V23" s="1">
-        <v>21.514953</v>
+        <v>21.514952999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>958.216000</v>
+        <v>958.21600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.448600</v>
+        <v>-90.448599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>77464.578564</v>
+        <v>77464.578563999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.517938</v>
+        <v>21.517938000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.908000</v>
+        <v>965.90800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.896300</v>
+        <v>-80.896299999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>77475.048615</v>
+        <v>77475.048615000007</v>
       </c>
       <c r="AF23" s="1">
         <v>21.520847</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.042000</v>
+        <v>971.04200000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.318400</v>
+        <v>-80.318399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>77485.592072</v>
+        <v>77485.592071999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.523776</v>
+        <v>21.523776000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.157000</v>
+        <v>979.15700000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.829300</v>
+        <v>-87.829300000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>77496.498143</v>
+        <v>77496.498143000004</v>
       </c>
       <c r="AP23" s="1">
         <v>21.526805</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.426000</v>
+        <v>988.42600000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.520000</v>
+        <v>-102.52</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>77507.590635</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.529886</v>
+        <v>21.529886000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.894000</v>
+        <v>999.89400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>77518.288351</v>
+        <v>77518.288350999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.532858</v>
+        <v>21.532858000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.377000</v>
+        <v>-142.37700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>77528.924560</v>
+        <v>77528.924559999999</v>
       </c>
       <c r="BE23" s="1">
         <v>21.535812</v>
       </c>
       <c r="BF23" s="1">
-        <v>1054.980000</v>
+        <v>1054.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.304000</v>
+        <v>-226.304</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>77540.375697</v>
+        <v>77540.375696999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.538993</v>
+        <v>21.538993000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.553000</v>
+        <v>-360.553</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>77552.636305</v>
+        <v>77552.636305000007</v>
       </c>
       <c r="BO23" s="1">
         <v>21.542399</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.440000</v>
+        <v>1265.44</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.290000</v>
+        <v>-567.29</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>77563.281938</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.545356</v>
+        <v>21.545356000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.200000</v>
+        <v>1412.2</v>
       </c>
       <c r="BV23" s="1">
-        <v>-787.809000</v>
+        <v>-787.80899999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>77574.256916</v>
+        <v>77574.256915999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.548405</v>
+        <v>21.548404999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1572.100000</v>
+        <v>1572.1</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1016.960000</v>
+        <v>-1016.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>77587.350803</v>
+        <v>77587.350802999994</v>
       </c>
       <c r="CD23" s="1">
         <v>21.552042</v>
       </c>
       <c r="CE23" s="1">
-        <v>1973.160000</v>
+        <v>1973.16</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1552.240000</v>
+        <v>-1552.24</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>77411.877146</v>
+        <v>77411.877145999999</v>
       </c>
       <c r="B24" s="1">
-        <v>21.503299</v>
+        <v>21.503298999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>904.138000</v>
+        <v>904.13800000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.881000</v>
+        <v>-192.881</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>77422.064478</v>
       </c>
       <c r="G24" s="1">
-        <v>21.506129</v>
+        <v>21.506129000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>921.337000</v>
+        <v>921.33699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.225000</v>
+        <v>-164.22499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>77432.902062</v>
+        <v>77432.902061999994</v>
       </c>
       <c r="L24" s="1">
-        <v>21.509139</v>
+        <v>21.509139000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.427000</v>
+        <v>944.42700000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.131000</v>
+        <v>-119.131</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>77443.449984</v>
+        <v>77443.449984000006</v>
       </c>
       <c r="Q24" s="1">
         <v>21.512069</v>
       </c>
       <c r="R24" s="1">
-        <v>951.332000</v>
+        <v>951.33199999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.995000</v>
+        <v>-103.995</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>77454.177954</v>
+        <v>77454.177953999999</v>
       </c>
       <c r="V24" s="1">
-        <v>21.515049</v>
+        <v>21.515049000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.237000</v>
+        <v>958.23699999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.309900</v>
+        <v>-90.309899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>77464.934692</v>
+        <v>77464.934691999995</v>
       </c>
       <c r="AA24" s="1">
         <v>21.518037</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.914000</v>
+        <v>965.91399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.862200</v>
+        <v>-80.862200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>77475.390886</v>
+        <v>77475.390885999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.520942</v>
+        <v>21.520942000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.167000</v>
+        <v>971.16700000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.277300</v>
+        <v>-80.277299999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>77486.254231</v>
+        <v>77486.254230999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.523960</v>
+        <v>21.523959999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.170000</v>
+        <v>979.17</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.800800</v>
+        <v>-87.800799999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>77497.242106</v>
+        <v>77497.242106000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.527012</v>
+        <v>21.527011999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.431000</v>
+        <v>988.43100000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.525000</v>
+        <v>-102.52500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>77508.036539</v>
+        <v>77508.036538999993</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.530010</v>
+        <v>21.530010000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.860000</v>
+        <v>999.86</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.801000</v>
+        <v>-123.801</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>77518.669278</v>
+        <v>77518.669278000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>21.532964</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.530000</v>
+        <v>1009.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.353000</v>
+        <v>-142.35300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>77529.289118</v>
+        <v>77529.289118000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.535914</v>
+        <v>21.535913999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.322000</v>
+        <v>-226.322</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>77540.750671</v>
+        <v>77540.750671000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.539097</v>
+        <v>21.539097000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1134.480000</v>
+        <v>1134.48</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.542000</v>
+        <v>-360.54199999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>77553.070800</v>
+        <v>77553.070800000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.542520</v>
+        <v>21.54252</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.440000</v>
+        <v>1265.44</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.294000</v>
+        <v>-567.29399999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>77563.709985</v>
+        <v>77563.709984999994</v>
       </c>
       <c r="BT24" s="1">
         <v>21.545475</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.380000</v>
+        <v>1412.38</v>
       </c>
       <c r="BV24" s="1">
-        <v>-787.707000</v>
+        <v>-787.70699999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>77574.676034</v>
+        <v>77574.676034000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.548521</v>
+        <v>21.548521000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1572.030000</v>
+        <v>1572.03</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1016.860000</v>
+        <v>-1016.86</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>77587.867633</v>
+        <v>77587.867633000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.552185</v>
+        <v>21.552185000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1973.620000</v>
+        <v>1973.62</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1553.820000</v>
+        <v>-1553.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>77412.218889</v>
+        <v>77412.218888999996</v>
       </c>
       <c r="B25" s="1">
         <v>21.503394</v>
       </c>
       <c r="C25" s="1">
-        <v>904.037000</v>
+        <v>904.03700000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.837000</v>
+        <v>-192.83699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>77422.751932</v>
+        <v>77422.751931999999</v>
       </c>
       <c r="G25" s="1">
-        <v>21.506320</v>
+        <v>21.506319999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>921.067000</v>
+        <v>921.06700000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.906000</v>
+        <v>-164.90600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>77433.248284</v>
+        <v>77433.248284000001</v>
       </c>
       <c r="L25" s="1">
-        <v>21.509236</v>
+        <v>21.509236000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.411000</v>
+        <v>944.41099999999994</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.954000</v>
+        <v>-118.95399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>77443.798671</v>
+        <v>77443.798670999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.512166</v>
+        <v>21.512166000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>951.296000</v>
+        <v>951.29600000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.985000</v>
+        <v>-103.985</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>77454.519201</v>
+        <v>77454.519201000003</v>
       </c>
       <c r="V25" s="1">
-        <v>21.515144</v>
+        <v>21.515143999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>958.275000</v>
+        <v>958.27499999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.398500</v>
+        <v>-90.398499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>77465.605322</v>
+        <v>77465.605322000003</v>
       </c>
       <c r="AA25" s="1">
         <v>21.518224</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.897000</v>
+        <v>965.89700000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.846700</v>
+        <v>-80.846699999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>77476.043590</v>
+        <v>77476.043590000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.521123</v>
+        <v>21.521122999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.080000</v>
+        <v>971.08</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.327000</v>
+        <v>-80.326999999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>77486.636647</v>
+        <v>77486.636647000007</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.524066</v>
+        <v>21.524066000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.190000</v>
+        <v>979.19</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.846600</v>
+        <v>-87.846599999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>77497.579386</v>
+        <v>77497.579385999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.527105</v>
+        <v>21.527104999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.441000</v>
+        <v>988.44100000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.495000</v>
+        <v>-102.495</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>77508.400106</v>
+        <v>77508.400106000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.530111</v>
+        <v>21.530111000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.882000</v>
+        <v>999.88199999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>77519.029868</v>
+        <v>77519.029867999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>21.533064</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.520000</v>
+        <v>1009.52</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.385000</v>
+        <v>-142.38499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>77529.651732</v>
+        <v>77529.651731999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.536014</v>
+        <v>21.536014000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1054.960000</v>
+        <v>1054.96</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.319000</v>
+        <v>-226.31899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>77541.180703</v>
+        <v>77541.180703000005</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.539217</v>
+        <v>21.539217000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1134.500000</v>
+        <v>1134.5</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.557000</v>
+        <v>-360.55700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>77553.455199</v>
+        <v>77553.455199000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.542626</v>
+        <v>21.542625999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.490000</v>
+        <v>1265.49</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.284000</v>
+        <v>-567.28399999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>77564.138528</v>
+        <v>77564.138527999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.545594</v>
+        <v>21.545594000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.230000</v>
+        <v>1412.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-787.532000</v>
+        <v>-787.53200000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>77575.102594</v>
+        <v>77575.102593999996</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.548640</v>
+        <v>21.548639999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1572.120000</v>
+        <v>1572.12</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1016.970000</v>
+        <v>-1016.97</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>77588.387937</v>
+        <v>77588.387937000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.552330</v>
+        <v>21.552330000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1973.830000</v>
+        <v>1973.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1551.580000</v>
+        <v>-1551.58</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>77412.895432</v>
+        <v>77412.895432000005</v>
       </c>
       <c r="B26" s="1">
-        <v>21.503582</v>
+        <v>21.503582000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>904.260000</v>
+        <v>904.26</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.878000</v>
+        <v>-192.87799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>77423.097643</v>
+        <v>77423.097643000001</v>
       </c>
       <c r="G26" s="1">
-        <v>21.506416</v>
+        <v>21.506416000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>921.156000</v>
+        <v>921.15599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.493000</v>
+        <v>-164.49299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>77433.595469</v>
+        <v>77433.595469000007</v>
       </c>
       <c r="L26" s="1">
-        <v>21.509332</v>
+        <v>21.509332000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.411000</v>
+        <v>944.41099999999994</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.947000</v>
+        <v>-118.947</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>77444.147855</v>
+        <v>77444.147855000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.512263</v>
+        <v>21.512263000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>951.377000</v>
+        <v>951.37699999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.999000</v>
+        <v>-103.999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>77455.180370</v>
+        <v>77455.180370000002</v>
       </c>
       <c r="V26" s="1">
         <v>21.515328</v>
       </c>
       <c r="W26" s="1">
-        <v>958.274000</v>
+        <v>958.274</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.311700</v>
+        <v>-90.311700000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>77465.982738</v>
+        <v>77465.982738000006</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.518329</v>
+        <v>21.518329000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.870000</v>
+        <v>965.87</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.931300</v>
+        <v>-80.931299999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>77476.420548</v>
+        <v>77476.420547999995</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.521228</v>
+        <v>21.521228000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.081000</v>
+        <v>971.08100000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.408300</v>
+        <v>-80.408299999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>77486.986334</v>
+        <v>77486.986334000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.524163</v>
+        <v>21.524163000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.159000</v>
+        <v>979.15899999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.823400</v>
+        <v>-87.823400000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>77497.940475</v>
+        <v>77497.940474999996</v>
       </c>
       <c r="AP26" s="1">
         <v>21.527206</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.429000</v>
+        <v>988.42899999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.525000</v>
+        <v>-102.52500000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>77508.765657</v>
+        <v>77508.765656999996</v>
       </c>
       <c r="AU26" s="1">
         <v>21.530213</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.887000</v>
+        <v>999.88699999999994</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.814000</v>
+        <v>-123.81399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>77519.454449</v>
+        <v>77519.454448999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.533182</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.540000</v>
+        <v>1009.54</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.369000</v>
+        <v>-142.369</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>77530.091149</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.536136</v>
+        <v>21.536135999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1054.950000</v>
+        <v>1054.95</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.334000</v>
+        <v>-226.334</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>77541.520998</v>
+        <v>77541.520998000007</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.539311</v>
+        <v>21.539311000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1134.490000</v>
+        <v>1134.49</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.568000</v>
+        <v>-360.56799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>77553.874830</v>
+        <v>77553.874830000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.542743</v>
+        <v>21.542743000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.470000</v>
+        <v>1265.47</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.307000</v>
+        <v>-567.30700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>77564.551233</v>
+        <v>77564.551233000006</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.545709</v>
+        <v>21.545708999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.240000</v>
+        <v>1412.24</v>
       </c>
       <c r="BV26" s="1">
-        <v>-787.418000</v>
+        <v>-787.41800000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>77575.520721</v>
+        <v>77575.520720999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.548756</v>
+        <v>21.548756000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.880000</v>
+        <v>1571.88</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1016.940000</v>
+        <v>-1016.94</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>77588.925600</v>
+        <v>77588.925600000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.552479</v>
+        <v>21.552479000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1973.280000</v>
+        <v>1973.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1553.270000</v>
+        <v>-1553.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>